--- a/medicine/Psychotrope/Oban_(distillerie)/Oban_(distillerie).xlsx
+++ b/medicine/Psychotrope/Oban_(distillerie)/Oban_(distillerie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Oban est une distillerie portant le nom de la ville l'hébergeant, sur la côte ouest écossaise. Cette distillerie est une des plus petites d'Écosse. Elle appartient au groupe Diageo, tout comme Talisker ou Dalwhinnie.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La distillerie a été fondée en 1794 par les frères Stevenson. La ville d'Oban s'est construite par la suite, autour de la distillerie. 
 En 1866, la distillerie passe dans les mains de Peter Cumstie qui la revend en 1883 à Walter Higgin. Ce dernier veut la moderniser et décide entre autres de creuser la roche afin d'y bâtir un nouveau chai. Les travaux doivent être arrêtés à la suite d'une découverte archéologique, mettant au jour des restes humains datant de 4500 ans av. J.-C. qui sont depuis exposés au National Museum of Antiquities d'Édimbourg. La distillerie est rachetée par Alexander Edward, propriétaire d'Aultmore, pour former le groupe Oban and Aultmore-Glenlivet Distilleries Ltd.
